--- a/StructureDefinition-ext-R5-Immunization.programEligibility.xlsx
+++ b/StructureDefinition-ext-R5-Immunization.programEligibility.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -343,7 +343,7 @@
     <t>Indicates which program the patient had their eligility evaluated for.</t>
   </si>
   <si>
-    <t>Element `Immunization.programEligibility.program` is mapped to FHIR R4 structure `Immunization`, but has no target element specified.</t>
+    <t>Element `Immunization.programEligibility.program` is will have a context of Immunization.programEligibility based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t>Extension.extension:program.id</t>
@@ -425,7 +425,7 @@
     <t>Indicates the patient's eligility status for for a specific payment program.</t>
   </si>
   <si>
-    <t>Element `Immunization.programEligibility.programStatus` is mapped to FHIR R4 structure `Immunization`, but has no target element specified.</t>
+    <t>Element `Immunization.programEligibility.programStatus` is will have a context of Immunization.programEligibility based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t>Extension.extension:programStatus.id</t>
@@ -796,7 +796,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="115.203125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="163.6328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Immunization.programEligibility.xlsx
+++ b/StructureDefinition-ext-R5-Immunization.programEligibility.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `Immunization.programEligibility` 0..* `CodeableConcept`
 *  R4: `Immunization.programEligibility` 0..* `CodeableConcept`
 Following are the generation technical comments:
-Element `Immunization.programEligibility` is mapped to FHIR R4 element `Immunization.programEligibility`.</t>
+Element `Immunization.programEligibility` has is mapped to FHIR R4 element `Immunization.programEligibility`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -343,7 +343,8 @@
     <t>Indicates which program the patient had their eligility evaluated for.</t>
   </si>
   <si>
-    <t>Element `Immunization.programEligibility.program` is will have a context of Immunization.programEligibility based on following the parent source element upwards and mapping to `Immunization`.</t>
+    <t>Element `Immunization.programEligibility.program` is part of an existing definition because parent element `Immunization.programEligibility` requires a cross-version extension.
+Element `Immunization.programEligibility.program` has a context of Immunization.programEligibility based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t>Extension.extension:program.id</t>
@@ -390,6 +391,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.programEligibility.program</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -425,7 +429,8 @@
     <t>Indicates the patient's eligility status for for a specific payment program.</t>
   </si>
   <si>
-    <t>Element `Immunization.programEligibility.programStatus` is will have a context of Immunization.programEligibility based on following the parent source element upwards and mapping to `Immunization`.</t>
+    <t>Element `Immunization.programEligibility.programStatus` is part of an existing definition because parent element `Immunization.programEligibility` requires a cross-version extension.
+Element `Immunization.programEligibility.programStatus` has a context of Immunization.programEligibility based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t>Extension.extension:programStatus.id</t>
@@ -435,6 +440,9 @@
   </si>
   <si>
     <t>Extension.extension:programStatus.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.programEligibility.programStatus</t>
   </si>
   <si>
     <t>Extension.extension:programStatus.value[x]</t>
@@ -796,7 +804,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="163.6328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="157.6484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1602,7 +1610,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1644,7 +1652,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1659,15 +1667,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1690,7 +1698,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1747,7 +1755,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1759,21 +1767,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1798,14 +1806,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1874,7 +1882,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1977,7 +1985,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2082,7 +2090,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2125,7 +2133,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2167,7 +2175,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2182,15 +2190,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2213,13 +2221,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2246,13 +2254,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2270,7 +2278,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2282,18 +2290,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2375,7 +2383,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
@@ -2390,15 +2398,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2421,13 +2429,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2478,7 +2486,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2490,10 +2498,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Immunization.programEligibility.xlsx
+++ b/StructureDefinition-ext-R5-Immunization.programEligibility.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,15 +446,6 @@
   </si>
   <si>
     <t>Extension.extension:programStatus.value[x]</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-immunization-program-eligibility-for-R4</t>
   </si>
   <si>
     <t>base64Binary
@@ -815,7 +806,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.78125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2254,13 +2245,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2429,13 +2420,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>

--- a/StructureDefinition-ext-R5-Immunization.programEligibility.xlsx
+++ b/StructureDefinition-ext-R5-Immunization.programEligibility.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `Immunization.programEligibility` 0..* `CodeableConcept`
 *  R4: `Immunization.programEligibility` 0..* `CodeableConcept`
 Following are the generation technical comments:
-Element `Immunization.programEligibility` has is mapped to FHIR R4 element `Immunization.programEligibility`, but has no comparisons.</t>
+Element `Immunization.programEligibility` is mapped to FHIR R4 element `Immunization.programEligibility` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -343,8 +343,7 @@
     <t>Indicates which program the patient had their eligility evaluated for.</t>
   </si>
   <si>
-    <t>Element `Immunization.programEligibility.program` is part of an existing definition because parent element `Immunization.programEligibility` requires a cross-version extension.
-Element `Immunization.programEligibility.program` has a context of Immunization.programEligibility based on following the parent source element upwards and mapping to `Immunization`.</t>
+    <t>Element `Immunization.programEligibility.program` has a context of Immunization.programEligibility based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t>Extension.extension:program.id</t>
@@ -391,9 +390,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.programEligibility.program</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -429,8 +425,7 @@
     <t>Indicates the patient's eligility status for for a specific payment program.</t>
   </si>
   <si>
-    <t>Element `Immunization.programEligibility.programStatus` is part of an existing definition because parent element `Immunization.programEligibility` requires a cross-version extension.
-Element `Immunization.programEligibility.programStatus` has a context of Immunization.programEligibility based on following the parent source element upwards and mapping to `Immunization`.</t>
+    <t>Element `Immunization.programEligibility.programStatus` has a context of Immunization.programEligibility based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t>Extension.extension:programStatus.id</t>
@@ -442,10 +437,16 @@
     <t>Extension.extension:programStatus.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.programEligibility.programStatus</t>
-  </si>
-  <si>
     <t>Extension.extension:programStatus.value[x]</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility|4.0.1</t>
   </si>
   <si>
     <t>base64Binary
@@ -806,7 +807,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1601,72 +1602,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1689,7 +1690,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1746,7 +1747,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1758,21 +1759,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1797,14 +1798,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1873,7 +1874,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1976,7 +1977,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2081,7 +2082,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2124,7 +2125,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2166,30 +2167,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2212,13 +2213,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2245,13 +2246,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2269,7 +2270,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2281,18 +2282,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2374,30 +2375,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2420,13 +2421,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2477,7 +2478,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2489,10 +2490,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
